--- a/biology/Médecine/Institut_Pasteur_de_Nha_Trang/Institut_Pasteur_de_Nha_Trang.xlsx
+++ b/biology/Médecine/Institut_Pasteur_de_Nha_Trang/Institut_Pasteur_de_Nha_Trang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'institut Pasteur est un institut Pasteur situé à Nha Trang au Viêt Nam. C'est un centre de recherche et de science en laboratoire spécialisé dans les maladies tropicales.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le premier institut Pasteur du Viêt Nam et d'Indochine française est l'institut Pasteur de Hô Chi Minh-Ville (à l'époque Saïgon) ouvert en janvier 1891 par le docteur Albert Calmette. Quatre ans plus tard, Alexandre Yersin ouvre une filiale à Nha Trang. Des animaux, tels que des buffles, des chevaux, des ânes, des lapins et des souris sont élevés pour les expériences avec l'assistance du vétérinaire militaire Pesas. Le futur maréchal Lyautey visite l'établissement en 1896. La même année, Yersin fait construire un petit établissement près du fleuve Cái, où il demeure.
 En 1904, l'établissement est reconstruit à grande échelle sous le nom d'« institut Pasteur » avec des colonnes grecques en façade. Le docteur Yersin se sert d'une plantation d'hévéas de 100 hectares (au lieu-dit les Sources huileuses, Suối Dầu), plantée au tournant du siècle avec l'aide de l'ingénieur agronome Vernet, pour mettre au point des médicaments contre le paludisme pendant la Première Guerre mondiale. Il ouvre deux fermes de bétail à l'île de Hòn Tre (dans la baie de Nha Trang) et aux Sources huileuses.
